--- a/biology/Zoologie/Dryosauridae/Dryosauridae.xlsx
+++ b/biology/Zoologie/Dryosauridae/Dryosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dryosauridae forment une famille de dinosaures ornithopodes parmi les Iguanodontia les plus primitifs. Ils sont connus d'Afrique, d'Europe et d'Amérique du Nord. Ils ont vécu du Jurassique moyen au Crétacé inférieur.
 </t>
@@ -511,11 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à récemment, plusieurs Dryosauridae ont été considérés comme douteux tels Dysalotosaurus, Elrhazosaurus et Valdosaurus. Cependant, des études plus récentes veulent redécrire ces genres comme valables. 
-Phylogénie
-Voici un cladogramme réalisé par Paul M. Barrett, Richard J. Butler, Richard J. Twitchett et Stephen Hutt, ceux qui ont mené ces études.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici un cladogramme réalisé par Paul M. Barrett, Richard J. Butler, Richard J. Twitchett et Stephen Hutt, ceux qui ont mené ces études.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dryosauridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryosauridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
